--- a/municipal/დემოგრაფია/გარდაცვლილთა რიცხოვნობა/ადიგენი.xlsx
+++ b/municipal/დემოგრაფია/გარდაცვლილთა რიცხოვნობა/ადიგენი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\Tamuna\cx 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\demo\demo\2) გარდაცვალება 2022\5(+გარდაცვალება საქალაქო სასოფლო\გარდაცვლილთა რიცხოვნობა\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C12D31-027B-4EC1-AA6B-FA10DBA95608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +106,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -249,10 +256,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -262,14 +267,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -279,7 +288,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -290,14 +299,14 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -321,44 +330,89 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -633,10 +687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -698,7 +754,7 @@
     </row>
     <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>2010</v>
       </c>
       <c r="C4" s="14">
@@ -731,134 +787,168 @@
       <c r="L4" s="15">
         <v>2020</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>2021</v>
+      </c>
+      <c r="N4" s="26">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="30">
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>244</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>221</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>219</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>208</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>225</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>233</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>237</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>237</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>202</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>224</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>223</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="18">
         <v>252</v>
+      </c>
+      <c r="N5" s="28">
+        <v>213</v>
+      </c>
+      <c r="O5" s="24">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>26</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>24</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>24</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>23</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>26</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>51</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>29</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>43</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>20</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <v>31</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <v>19</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <v>35</v>
+      </c>
+      <c r="N6" s="27">
+        <v>24</v>
+      </c>
+      <c r="O6" s="23">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>218</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>197</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>195</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>185</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>199</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>182</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>208</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <v>194</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="22">
         <v>182</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>193</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>204</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="22">
         <v>217</v>
+      </c>
+      <c r="N7" s="29">
+        <v>189</v>
+      </c>
+      <c r="O7" s="25">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N5:N7">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>